--- a/Exc2/FURPS_table.xlsx
+++ b/Exc2/FURPS_table.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
   <si>
     <t>Код</t>
   </si>
@@ -201,12 +201,30 @@
   <si>
     <t xml:space="preserve">избежать прямой работы интернет-банка с API АБС</t>
   </si>
+  <si>
+    <t>+R6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">АБС поддерживает только вертикальное масштабирование</t>
+  </si>
+  <si>
+    <t>+R7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Нужно использовать микросервисную архитектуру при разработке в интернет-банке</t>
+  </si>
+  <si>
+    <t>+R8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Не дорабатывать функционал подрядчика в интернет-банке</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10.000000"/>
       <color theme="1"/>
@@ -233,6 +251,11 @@
     </font>
     <font>
       <sz val="12.000000"/>
+      <name val="Liberation Sans"/>
+    </font>
+    <font>
+      <sz val="11.500000"/>
+      <color theme="1"/>
       <name val="Liberation Sans"/>
     </font>
   </fonts>
@@ -324,7 +347,7 @@
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="1" fillId="2" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -353,9 +376,6 @@
     <xf fontId="4" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
-      <protection hidden="0" locked="1"/>
-    </xf>
     <xf fontId="0" fillId="0" borderId="3" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -365,19 +385,19 @@
     <xf fontId="4" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf fontId="2" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="4" numFmtId="0" xfId="0" applyBorder="1">
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="5" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1" vertical="center" wrapText="1"/>
     </xf>
     <xf fontId="0" fillId="3" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="2" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="4" numFmtId="0" xfId="0" applyBorder="1">
-      <protection hidden="0" locked="1"/>
-    </xf>
-    <xf fontId="5" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="6" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1" vertical="center" wrapText="1"/>
     </xf>
     <xf fontId="4" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -890,7 +910,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView topLeftCell="A21" zoomScale="100" workbookViewId="0">
+    <sheetView topLeftCell="A25" zoomScale="100" workbookViewId="0">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -943,58 +963,58 @@
       <c r="D6" s="6"/>
     </row>
     <row r="7" ht="30" customHeight="1">
-      <c r="A7" s="10"/>
+      <c r="A7" s="7"/>
       <c r="B7" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="11"/>
+      <c r="D7" s="10"/>
     </row>
     <row r="8" ht="30" customHeight="1">
-      <c r="A8" s="10"/>
+      <c r="A8" s="7"/>
       <c r="B8" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="11"/>
+      <c r="D8" s="10"/>
     </row>
     <row r="9" ht="30" customHeight="1">
-      <c r="A9" s="10"/>
+      <c r="A9" s="7"/>
       <c r="B9" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C9" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="11" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="10" ht="30" customHeight="1">
-      <c r="A10" s="10"/>
+      <c r="A10" s="7"/>
       <c r="B10" s="8" t="s">
         <v>16</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="11" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="11" ht="30" customHeight="1">
-      <c r="A11" s="10"/>
+      <c r="A11" s="7"/>
       <c r="B11" s="8" t="s">
         <v>19</v>
       </c>
       <c r="C11" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="12"/>
+      <c r="D11" s="11"/>
     </row>
     <row r="12" ht="30" customHeight="1">
       <c r="B12" s="2" t="s">
@@ -1075,7 +1095,7 @@
       <c r="C20" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="D20" s="13" t="s">
+      <c r="D20" s="12" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1086,7 +1106,7 @@
       <c r="C21" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D21" s="14" t="s">
+      <c r="D21" s="6" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1109,8 +1129,8 @@
       <c r="D23" s="6"/>
     </row>
     <row r="24" ht="30" customHeight="1">
-      <c r="B24" s="15"/>
-      <c r="C24" s="16" t="s">
+      <c r="B24" s="8"/>
+      <c r="C24" s="13" t="s">
         <v>47</v>
       </c>
       <c r="D24" s="6"/>
@@ -1125,7 +1145,7 @@
       <c r="D25" s="4"/>
     </row>
     <row r="26" ht="35.25" customHeight="1">
-      <c r="A26" s="17"/>
+      <c r="A26" s="14"/>
       <c r="B26" s="8" t="s">
         <v>50</v>
       </c>
@@ -1135,17 +1155,17 @@
       <c r="D26" s="6"/>
     </row>
     <row r="27" ht="35.25" customHeight="1">
-      <c r="A27" s="17"/>
+      <c r="A27" s="14"/>
       <c r="B27" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="C27" s="18" t="s">
+      <c r="C27" s="15" t="s">
         <v>53</v>
       </c>
       <c r="D27" s="6"/>
     </row>
     <row r="28" ht="104.25" customHeight="1">
-      <c r="A28" s="17"/>
+      <c r="A28" s="14"/>
       <c r="B28" s="8" t="s">
         <v>54</v>
       </c>
@@ -1155,19 +1175,19 @@
       <c r="D28" s="6"/>
     </row>
     <row r="29" ht="35.25" customHeight="1">
-      <c r="A29" s="17"/>
+      <c r="A29" s="14"/>
       <c r="B29" s="8" t="s">
         <v>56</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="D29" s="14" t="s">
+      <c r="D29" s="6" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="30" ht="33" customHeight="1">
-      <c r="A30" s="17"/>
+    <row r="30" ht="35.25" customHeight="1">
+      <c r="A30" s="14"/>
       <c r="B30" s="8" t="s">
         <v>59</v>
       </c>
@@ -1176,11 +1196,41 @@
       </c>
       <c r="D30" s="6"/>
     </row>
-    <row r="31" ht="14.25">
-      <c r="C31" s="19"/>
-    </row>
-    <row r="32" ht="14.25">
-      <c r="C32" s="19"/>
+    <row r="31" ht="35.25" customHeight="1">
+      <c r="A31" s="14"/>
+      <c r="B31" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="C31" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="D31" s="6"/>
+    </row>
+    <row r="32" ht="35.25" customHeight="1">
+      <c r="A32" s="14"/>
+      <c r="B32" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="C32" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="D32" s="6"/>
+    </row>
+    <row r="33" ht="35.25" customHeight="1">
+      <c r="A33" s="14"/>
+      <c r="B33" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="C33" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="D33" s="6"/>
+    </row>
+    <row r="34" ht="14.25">
+      <c r="C34" s="18"/>
+    </row>
+    <row r="35" ht="14.25">
+      <c r="C35" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="6">
